--- a/SSISDB.xlsx
+++ b/SSISDB.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK82"/>
+  <dimension ref="A1:AG82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,115 +510,95 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>project_format_version</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>deployed_by_name</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>last_deployed_time</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>created_time</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>object_version_lsn</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>package_id</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>name_y</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>package_guid</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>description_y</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>project_format_version</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>deployed_by_sid</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>deployed_by_name</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>last_deployed_time</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>created_time</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>object_version_lsn</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>package_format_version</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>version_major</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>version_minor</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>version_build</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>version_comments</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>version_guid</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>entry_point</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>validation_status_y</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>last_validation_time_y</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>package_id</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>name_y</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>package_guid</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>package_format_version</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>version_major</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>version_minor</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>version_build</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>version_comments</t>
-        </is>
-      </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>version_guid</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>entry_point</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>validation_status</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>last_validation_time</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Tool</t>
         </is>
@@ -675,77 +655,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="R2" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U2" t="n">
+      <c r="S2" t="n">
         <v>11</v>
       </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
         <v>8</v>
       </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -802,77 +770,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="Q3" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="R3" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U3" t="n">
+      <c r="S3" t="n">
         <v>11</v>
       </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
         <v>8</v>
       </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>2</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -929,77 +885,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="Q4" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U4" t="n">
+      <c r="S4" t="n">
         <v>11</v>
       </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
         <v>8</v>
       </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>2</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -1056,77 +1000,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="Q5" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U5" t="n">
+      <c r="S5" t="n">
         <v>11</v>
       </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
         <v>8</v>
       </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>2</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -1183,77 +1115,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="Q6" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U6" t="n">
+      <c r="S6" t="n">
         <v>11</v>
       </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
         <v>8</v>
       </c>
-      <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>2</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -1310,77 +1230,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="Q7" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U7" t="n">
+      <c r="S7" t="n">
         <v>11</v>
       </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
         <v>8</v>
       </c>
-      <c r="AC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>2</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -1433,77 +1341,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="Q8" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U8" t="n">
+      <c r="S8" t="n">
         <v>11</v>
       </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="n">
         <v>8</v>
       </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>2</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -1560,77 +1456,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="Q9" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="R9" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U9" t="n">
+      <c r="S9" t="n">
         <v>11</v>
       </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
         <v>8</v>
       </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>2</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -1687,77 +1571,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="Q10" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="R10" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U10" t="n">
+      <c r="S10" t="n">
         <v>11</v>
       </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="n">
         <v>8</v>
       </c>
-      <c r="AC10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>2</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -1810,77 +1682,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="Q11" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="R11" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U11" t="n">
+      <c r="S11" t="n">
         <v>11</v>
       </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
         <v>8</v>
       </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>2</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -1937,77 +1797,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="Q12" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="R12" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U12" t="n">
+      <c r="S12" t="n">
         <v>11</v>
       </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="n">
         <v>8</v>
       </c>
-      <c r="AC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>2</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -2064,77 +1912,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="Q13" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="R13" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U13" t="n">
+      <c r="S13" t="n">
         <v>11</v>
       </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="n">
         <v>8</v>
       </c>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
         <v>2</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -2191,77 +2027,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="Q14" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="R14" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U14" t="n">
+      <c r="S14" t="n">
         <v>11</v>
       </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="n">
         <v>8</v>
       </c>
-      <c r="AC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>2</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -2318,77 +2142,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="Q15" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="R15" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U15" t="n">
+      <c r="S15" t="n">
         <v>11</v>
       </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="n">
         <v>8</v>
       </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>2</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -2445,77 +2257,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="Q16" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="R16" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U16" t="n">
+      <c r="S16" t="n">
         <v>11</v>
       </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="n">
         <v>8</v>
       </c>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
         <v>2</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -2572,77 +2372,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="Q17" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="R17" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U17" t="n">
+      <c r="S17" t="n">
         <v>11</v>
       </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
         <v>8</v>
       </c>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>2</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -2699,77 +2487,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="Q18" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="R18" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U18" t="n">
+      <c r="S18" t="n">
         <v>11</v>
       </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="n">
         <v>8</v>
       </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
         <v>2</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -2827,77 +2603,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="Q19" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="R19" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U19" t="n">
+      <c r="S19" t="n">
         <v>11</v>
       </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="n">
         <v>8</v>
       </c>
-      <c r="AC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
         <v>2</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -2954,77 +2718,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="Q20" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="R20" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U20" t="n">
+      <c r="S20" t="n">
         <v>11</v>
       </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="n">
         <v>8</v>
       </c>
-      <c r="AC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
         <v>2</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -3081,77 +2833,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="Q21" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="R21" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U21" t="n">
+      <c r="S21" t="n">
         <v>11</v>
       </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="n">
         <v>8</v>
       </c>
-      <c r="AC21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
         <v>2</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -3204,77 +2944,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="Q22" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="R22" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U22" t="n">
+      <c r="S22" t="n">
         <v>11</v>
       </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
         <v>8</v>
       </c>
-      <c r="AC22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
         <v>2</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -3331,77 +3059,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="Q23" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="R23" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U23" t="n">
+      <c r="S23" t="n">
         <v>11</v>
       </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="n">
         <v>8</v>
       </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
         <v>2</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -3458,77 +3174,65 @@
           <t>csv_to_db</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="Q24" s="2" t="n">
         <v>45555.30415773649</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="R24" s="2" t="n">
         <v>45555.3041399655</v>
       </c>
-      <c r="U24" t="n">
+      <c r="S24" t="n">
         <v>11</v>
       </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Package.dtsx</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Package.dtsx</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>94940DEB-83FF-4FE4-ADF2-CD94877D1C7F</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="n">
         <v>8</v>
       </c>
-      <c r="AC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>2</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
-        <is>
-          <t>BD6C1955-9DEE-4080-9AC0-EE261FF1CF62</t>
-        </is>
-      </c>
-      <c r="AH24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -3581,77 +3285,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="Q25" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="R25" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U25" t="n">
-        <v>12</v>
+      <c r="S25" t="n">
+        <v>12</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="n">
         <v>8</v>
       </c>
-      <c r="AC25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
         <v>4</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -3708,77 +3400,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="Q26" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="R26" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U26" t="n">
-        <v>12</v>
+      <c r="S26" t="n">
+        <v>12</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="n">
         <v>8</v>
       </c>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
         <v>4</v>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -3835,77 +3515,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="Q27" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="R27" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U27" t="n">
-        <v>12</v>
+      <c r="S27" t="n">
+        <v>12</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="n">
         <v>8</v>
       </c>
-      <c r="AC27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="Y27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
         <v>4</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -3962,77 +3630,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="Q28" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="R28" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U28" t="n">
-        <v>12</v>
+      <c r="S28" t="n">
+        <v>12</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="n">
         <v>8</v>
       </c>
-      <c r="AC28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
         <v>4</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -4089,77 +3745,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="Q29" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="R29" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U29" t="n">
-        <v>12</v>
+      <c r="S29" t="n">
+        <v>12</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="n">
         <v>8</v>
       </c>
-      <c r="AC29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
         <v>4</v>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -4212,77 +3856,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="Q30" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="R30" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U30" t="n">
-        <v>12</v>
+      <c r="S30" t="n">
+        <v>12</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="n">
         <v>8</v>
       </c>
-      <c r="AC30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="Y30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
         <v>4</v>
+      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -4340,77 +3972,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="Q31" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="R31" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U31" t="n">
-        <v>12</v>
+      <c r="S31" t="n">
+        <v>12</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="n">
         <v>8</v>
       </c>
-      <c r="AC31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
         <v>4</v>
+      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -4467,77 +4087,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="Q32" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="R32" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U32" t="n">
-        <v>12</v>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="n">
         <v>8</v>
       </c>
-      <c r="AC32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
+      <c r="Y32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
         <v>4</v>
+      </c>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -4594,77 +4202,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="Q33" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="R33" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U33" t="n">
-        <v>12</v>
+      <c r="S33" t="n">
+        <v>12</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="n">
         <v>8</v>
       </c>
-      <c r="AC33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
         <v>4</v>
+      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -4717,77 +4313,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="Q34" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="R34" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U34" t="n">
-        <v>12</v>
+      <c r="S34" t="n">
+        <v>12</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="n">
         <v>8</v>
       </c>
-      <c r="AC34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="Y34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
         <v>4</v>
+      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -4844,77 +4428,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="Q35" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="R35" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U35" t="n">
-        <v>12</v>
+      <c r="S35" t="n">
+        <v>12</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="n">
         <v>8</v>
       </c>
-      <c r="AC35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
+      <c r="Y35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
         <v>4</v>
+      </c>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -4971,77 +4543,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="Q36" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="R36" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U36" t="n">
-        <v>12</v>
+      <c r="S36" t="n">
+        <v>12</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="n">
         <v>8</v>
       </c>
-      <c r="AC36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
+      <c r="Y36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
         <v>4</v>
+      </c>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -5098,77 +4658,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="Q37" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="R37" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U37" t="n">
-        <v>12</v>
+      <c r="S37" t="n">
+        <v>12</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="n">
         <v>8</v>
       </c>
-      <c r="AC37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="Y37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
         <v>4</v>
+      </c>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -5225,77 +4773,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="Q38" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="R38" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U38" t="n">
-        <v>12</v>
+      <c r="S38" t="n">
+        <v>12</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="n">
         <v>8</v>
       </c>
-      <c r="AC38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
+      <c r="Y38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
         <v>4</v>
+      </c>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -5352,77 +4888,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="Q39" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="R39" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U39" t="n">
-        <v>12</v>
+      <c r="S39" t="n">
+        <v>12</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="n">
         <v>8</v>
       </c>
-      <c r="AC39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
+      <c r="Y39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
         <v>4</v>
+      </c>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -5479,77 +5003,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S40" s="2" t="n">
+      <c r="Q40" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="R40" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U40" t="n">
-        <v>12</v>
+      <c r="S40" t="n">
+        <v>12</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="n">
         <v>8</v>
       </c>
-      <c r="AC40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
+      <c r="Y40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
         <v>4</v>
+      </c>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -5606,77 +5118,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S41" s="2" t="n">
+      <c r="Q41" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="R41" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U41" t="n">
-        <v>12</v>
+      <c r="S41" t="n">
+        <v>12</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="n">
         <v>8</v>
       </c>
-      <c r="AC41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
+      <c r="Y41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
         <v>4</v>
+      </c>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -5733,77 +5233,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S42" s="2" t="n">
+      <c r="Q42" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="R42" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U42" t="n">
-        <v>12</v>
+      <c r="S42" t="n">
+        <v>12</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="n">
         <v>8</v>
       </c>
-      <c r="AC42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
+      <c r="Y42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
         <v>4</v>
+      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -5860,77 +5348,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S43" s="2" t="n">
+      <c r="Q43" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="R43" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U43" t="n">
-        <v>12</v>
+      <c r="S43" t="n">
+        <v>12</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="n">
         <v>8</v>
       </c>
-      <c r="AC43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
+      <c r="Y43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
         <v>4</v>
+      </c>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -5987,77 +5463,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S44" s="2" t="n">
+      <c r="Q44" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="R44" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U44" t="n">
-        <v>12</v>
+      <c r="S44" t="n">
+        <v>12</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="n">
         <v>8</v>
       </c>
-      <c r="AC44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
+      <c r="Y44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
         <v>4</v>
+      </c>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -6114,77 +5578,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S45" s="2" t="n">
+      <c r="Q45" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="R45" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U45" t="n">
-        <v>12</v>
+      <c r="S45" t="n">
+        <v>12</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="n">
         <v>8</v>
       </c>
-      <c r="AC45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
+      <c r="Y45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
         <v>4</v>
+      </c>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -6241,77 +5693,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S46" s="2" t="n">
+      <c r="Q46" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T46" s="2" t="n">
+      <c r="R46" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U46" t="n">
-        <v>12</v>
+      <c r="S46" t="n">
+        <v>12</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="n">
         <v>8</v>
       </c>
-      <c r="AC46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="Y46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
         <v>4</v>
+      </c>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -6368,77 +5808,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S47" s="2" t="n">
+      <c r="Q47" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="R47" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U47" t="n">
-        <v>12</v>
+      <c r="S47" t="n">
+        <v>12</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="n">
         <v>8</v>
       </c>
-      <c r="AC47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
+      <c r="Y47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
         <v>4</v>
+      </c>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -6495,77 +5923,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S48" s="2" t="n">
+      <c r="Q48" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T48" s="2" t="n">
+      <c r="R48" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U48" t="n">
-        <v>12</v>
+      <c r="S48" t="n">
+        <v>12</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="n">
         <v>8</v>
       </c>
-      <c r="AC48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
+      <c r="Y48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
         <v>4</v>
+      </c>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -6618,77 +6034,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S49" s="2" t="n">
+      <c r="Q49" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T49" s="2" t="n">
+      <c r="R49" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U49" t="n">
-        <v>12</v>
+      <c r="S49" t="n">
+        <v>12</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="n">
         <v>8</v>
       </c>
-      <c r="AC49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
+      <c r="Y49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
         <v>4</v>
+      </c>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI49" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -6745,77 +6149,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S50" s="2" t="n">
+      <c r="Q50" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T50" s="2" t="n">
+      <c r="R50" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U50" t="n">
-        <v>12</v>
+      <c r="S50" t="n">
+        <v>12</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="n">
         <v>8</v>
       </c>
-      <c r="AC50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
+      <c r="Y50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
         <v>4</v>
+      </c>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -6872,77 +6264,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S51" s="2" t="n">
+      <c r="Q51" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T51" s="2" t="n">
+      <c r="R51" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U51" t="n">
-        <v>12</v>
+      <c r="S51" t="n">
+        <v>12</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="n">
         <v>8</v>
       </c>
-      <c r="AC51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
+      <c r="Y51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
         <v>4</v>
+      </c>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -6999,77 +6379,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S52" s="2" t="n">
+      <c r="Q52" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="R52" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U52" t="n">
-        <v>12</v>
+      <c r="S52" t="n">
+        <v>12</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="n">
         <v>8</v>
       </c>
-      <c r="AC52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
+      <c r="Y52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
         <v>4</v>
+      </c>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -7126,77 +6494,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S53" s="2" t="n">
+      <c r="Q53" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="R53" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U53" t="n">
-        <v>12</v>
+      <c r="S53" t="n">
+        <v>12</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="n">
         <v>8</v>
       </c>
-      <c r="AC53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
+      <c r="Y53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
         <v>4</v>
+      </c>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -7253,77 +6609,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S54" s="2" t="n">
+      <c r="Q54" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T54" s="2" t="n">
+      <c r="R54" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U54" t="n">
-        <v>12</v>
+      <c r="S54" t="n">
+        <v>12</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="n">
         <v>8</v>
       </c>
-      <c r="AC54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
+      <c r="Y54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
         <v>4</v>
+      </c>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -7380,77 +6724,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S55" s="2" t="n">
+      <c r="Q55" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T55" s="2" t="n">
+      <c r="R55" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U55" t="n">
-        <v>12</v>
+      <c r="S55" t="n">
+        <v>12</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="n">
         <v>8</v>
       </c>
-      <c r="AC55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
+      <c r="Y55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
         <v>4</v>
+      </c>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -7507,77 +6839,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S56" s="2" t="n">
+      <c r="Q56" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T56" s="2" t="n">
+      <c r="R56" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U56" t="n">
-        <v>12</v>
+      <c r="S56" t="n">
+        <v>12</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="n">
         <v>8</v>
       </c>
-      <c r="AC56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
+      <c r="Y56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
         <v>4</v>
+      </c>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH56" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -7630,77 +6950,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S57" s="2" t="n">
+      <c r="Q57" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T57" s="2" t="n">
+      <c r="R57" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U57" t="n">
-        <v>12</v>
+      <c r="S57" t="n">
+        <v>12</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="n">
         <v>8</v>
       </c>
-      <c r="AC57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
+      <c r="Y57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
         <v>4</v>
+      </c>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH57" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -7757,77 +7065,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S58" s="2" t="n">
+      <c r="Q58" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T58" s="2" t="n">
+      <c r="R58" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U58" t="n">
-        <v>12</v>
+      <c r="S58" t="n">
+        <v>12</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="n">
         <v>8</v>
       </c>
-      <c r="AC58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
+      <c r="Y58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
         <v>4</v>
+      </c>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -7884,77 +7180,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S59" s="2" t="n">
+      <c r="Q59" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T59" s="2" t="n">
+      <c r="R59" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U59" t="n">
-        <v>12</v>
+      <c r="S59" t="n">
+        <v>12</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="n">
         <v>8</v>
       </c>
-      <c r="AC59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
+      <c r="Y59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
         <v>4</v>
+      </c>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH59" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -8011,77 +7295,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S60" s="2" t="n">
+      <c r="Q60" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T60" s="2" t="n">
+      <c r="R60" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U60" t="n">
-        <v>12</v>
+      <c r="S60" t="n">
+        <v>12</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="n">
         <v>8</v>
       </c>
-      <c r="AC60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
+      <c r="Y60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
         <v>4</v>
+      </c>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI60" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -8138,77 +7410,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S61" s="2" t="n">
+      <c r="Q61" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T61" s="2" t="n">
+      <c r="R61" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U61" t="n">
-        <v>12</v>
+      <c r="S61" t="n">
+        <v>12</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="n">
         <v>8</v>
       </c>
-      <c r="AC61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
+      <c r="Y61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
         <v>4</v>
+      </c>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH61" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI61" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -8265,77 +7525,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S62" s="2" t="n">
+      <c r="Q62" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T62" s="2" t="n">
+      <c r="R62" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U62" t="n">
-        <v>12</v>
+      <c r="S62" t="n">
+        <v>12</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="n">
         <v>8</v>
       </c>
-      <c r="AC62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
+      <c r="Y62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
         <v>4</v>
+      </c>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH62" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI62" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -8392,77 +7640,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S63" s="2" t="n">
+      <c r="Q63" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T63" s="2" t="n">
+      <c r="R63" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U63" t="n">
-        <v>12</v>
+      <c r="S63" t="n">
+        <v>12</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="n">
         <v>8</v>
       </c>
-      <c r="AC63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
+      <c r="Y63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
         <v>4</v>
+      </c>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH63" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI63" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -8519,77 +7755,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S64" s="2" t="n">
+      <c r="Q64" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T64" s="2" t="n">
+      <c r="R64" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U64" t="n">
-        <v>12</v>
+      <c r="S64" t="n">
+        <v>12</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="n">
         <v>8</v>
       </c>
-      <c r="AC64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
+      <c r="Y64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
         <v>4</v>
+      </c>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH64" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI64" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -8646,77 +7870,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S65" s="2" t="n">
+      <c r="Q65" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="R65" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U65" t="n">
-        <v>12</v>
+      <c r="S65" t="n">
+        <v>12</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="n">
         <v>8</v>
       </c>
-      <c r="AC65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
+      <c r="Y65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
         <v>4</v>
+      </c>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH65" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI65" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -8773,77 +7985,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S66" s="2" t="n">
+      <c r="Q66" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="R66" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U66" t="n">
-        <v>12</v>
+      <c r="S66" t="n">
+        <v>12</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="n">
         <v>8</v>
       </c>
-      <c r="AC66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
+      <c r="Y66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
         <v>4</v>
+      </c>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI66" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -8901,77 +8101,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S67" s="2" t="n">
+      <c r="Q67" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T67" s="2" t="n">
+      <c r="R67" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U67" t="n">
-        <v>12</v>
+      <c r="S67" t="n">
+        <v>12</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="n">
         <v>8</v>
       </c>
-      <c r="AC67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
+      <c r="Y67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
         <v>4</v>
+      </c>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH67" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI67" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -9028,77 +8216,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S68" s="2" t="n">
+      <c r="Q68" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T68" s="2" t="n">
+      <c r="R68" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U68" t="n">
-        <v>12</v>
+      <c r="S68" t="n">
+        <v>12</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="n">
         <v>8</v>
       </c>
-      <c r="AC68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
+      <c r="Y68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
         <v>4</v>
+      </c>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH68" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI68" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -9155,77 +8331,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S69" s="2" t="n">
+      <c r="Q69" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="R69" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U69" t="n">
-        <v>12</v>
+      <c r="S69" t="n">
+        <v>12</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="n">
         <v>8</v>
       </c>
-      <c r="AC69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
+      <c r="Y69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
         <v>4</v>
+      </c>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH69" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ69" t="inlineStr"/>
-      <c r="AK69" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -9278,77 +8442,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S70" s="2" t="n">
+      <c r="Q70" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T70" s="2" t="n">
+      <c r="R70" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U70" t="n">
-        <v>12</v>
+      <c r="S70" t="n">
+        <v>12</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="n">
         <v>8</v>
       </c>
-      <c r="AC70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
+      <c r="Y70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
         <v>4</v>
+      </c>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI70" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ70" t="inlineStr"/>
-      <c r="AK70" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -9405,77 +8557,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S71" s="2" t="n">
+      <c r="Q71" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T71" s="2" t="n">
+      <c r="R71" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U71" t="n">
-        <v>12</v>
+      <c r="S71" t="n">
+        <v>12</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="n">
         <v>8</v>
       </c>
-      <c r="AC71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
+      <c r="Y71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
         <v>4</v>
+      </c>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI71" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ71" t="inlineStr"/>
-      <c r="AK71" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -9532,77 +8672,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S72" s="2" t="n">
+      <c r="Q72" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T72" s="2" t="n">
+      <c r="R72" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U72" t="n">
-        <v>12</v>
+      <c r="S72" t="n">
+        <v>12</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="n">
         <v>8</v>
       </c>
-      <c r="AC72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
+      <c r="Y72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
         <v>4</v>
+      </c>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr"/>
-      <c r="AK72" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -9659,77 +8787,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S73" s="2" t="n">
+      <c r="Q73" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T73" s="2" t="n">
+      <c r="R73" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U73" t="n">
-        <v>12</v>
+      <c r="S73" t="n">
+        <v>12</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="n">
         <v>8</v>
       </c>
-      <c r="AC73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
+      <c r="Y73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
         <v>4</v>
+      </c>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI73" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -9786,77 +8902,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S74" s="2" t="n">
+      <c r="Q74" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T74" s="2" t="n">
+      <c r="R74" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U74" t="n">
-        <v>12</v>
+      <c r="S74" t="n">
+        <v>12</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="n">
         <v>8</v>
       </c>
-      <c r="AC74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
+      <c r="Y74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
         <v>4</v>
+      </c>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH74" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI74" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ74" t="inlineStr"/>
-      <c r="AK74" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -9913,77 +9017,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S75" s="2" t="n">
+      <c r="Q75" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T75" s="2" t="n">
+      <c r="R75" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U75" t="n">
-        <v>12</v>
+      <c r="S75" t="n">
+        <v>12</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="n">
         <v>8</v>
       </c>
-      <c r="AC75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
+      <c r="Y75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
         <v>4</v>
+      </c>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH75" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI75" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ75" t="inlineStr"/>
-      <c r="AK75" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -10040,77 +9132,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S76" s="2" t="n">
+      <c r="Q76" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T76" s="2" t="n">
+      <c r="R76" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U76" t="n">
-        <v>12</v>
+      <c r="S76" t="n">
+        <v>12</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="n">
         <v>8</v>
       </c>
-      <c r="AC76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
+      <c r="Y76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
         <v>4</v>
+      </c>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH76" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI76" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ76" t="inlineStr"/>
-      <c r="AK76" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -10167,77 +9247,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S77" s="2" t="n">
+      <c r="Q77" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T77" s="2" t="n">
+      <c r="R77" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U77" t="n">
-        <v>12</v>
+      <c r="S77" t="n">
+        <v>12</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="n">
         <v>8</v>
       </c>
-      <c r="AC77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
+      <c r="Y77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
         <v>4</v>
+      </c>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH77" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI77" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr"/>
-      <c r="AK77" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -10294,77 +9362,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S78" s="2" t="n">
+      <c r="Q78" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T78" s="2" t="n">
+      <c r="R78" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U78" t="n">
-        <v>12</v>
+      <c r="S78" t="n">
+        <v>12</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="n">
         <v>8</v>
       </c>
-      <c r="AC78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
+      <c r="Y78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
         <v>4</v>
+      </c>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH78" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI78" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ78" t="inlineStr"/>
-      <c r="AK78" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -10417,77 +9473,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S79" s="2" t="n">
+      <c r="Q79" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T79" s="2" t="n">
+      <c r="R79" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U79" t="n">
-        <v>12</v>
+      <c r="S79" t="n">
+        <v>12</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="n">
         <v>8</v>
       </c>
-      <c r="AC79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
+      <c r="Y79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
         <v>4</v>
+      </c>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH79" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI79" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -10544,77 +9588,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S80" s="2" t="n">
+      <c r="Q80" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T80" s="2" t="n">
+      <c r="R80" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U80" t="n">
-        <v>12</v>
+      <c r="S80" t="n">
+        <v>12</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="n">
         <v>8</v>
       </c>
-      <c r="AC80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
+      <c r="Y80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
         <v>4</v>
+      </c>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH80" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI80" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ80" t="inlineStr"/>
-      <c r="AK80" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -10671,77 +9703,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S81" s="2" t="n">
+      <c r="Q81" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T81" s="2" t="n">
+      <c r="R81" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U81" t="n">
-        <v>12</v>
+      <c r="S81" t="n">
+        <v>12</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="n">
         <v>8</v>
       </c>
-      <c r="AC81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE81" t="n">
+      <c r="Y81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
         <v>4</v>
+      </c>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH81" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI81" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
@@ -10794,77 +9814,65 @@
           <t>demoPP_etl</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>b'\x01\x05\x00\x00\x00\x00\x00\x05\x15\x00\x00\x00I\x99\xb4=\x1fF\x81*G\xf9\x8b\x1d\xe9\x03\x00\x00'</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="inlineStr">
         <is>
           <t>DESKTOP-SC3FF9O\Dawood Ahmed</t>
         </is>
       </c>
-      <c r="S82" s="2" t="n">
+      <c r="Q82" s="2" t="n">
         <v>45555.34766897342</v>
       </c>
-      <c r="T82" s="2" t="n">
+      <c r="R82" s="2" t="n">
         <v>45555.34766114957</v>
       </c>
-      <c r="U82" t="n">
-        <v>12</v>
+      <c r="S82" t="n">
+        <v>12</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>demoetlpackage.dtsx</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>demoetlpackage.dtsx</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>45E8C404-006A-4D58-8E7B-BFB67D91A6DC</t>
-        </is>
-      </c>
-      <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="n">
         <v>8</v>
       </c>
-      <c r="AC82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="n">
+      <c r="Y82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="n">
         <v>4</v>
+      </c>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr">
-        <is>
-          <t>F2CD298F-5374-4A67-85BA-75AA33AC690A</t>
-        </is>
-      </c>
-      <c r="AH82" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI82" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AJ82" t="inlineStr"/>
-      <c r="AK82" t="inlineStr">
         <is>
           <t>SSIS</t>
         </is>
